--- a/DB자료.xlsx
+++ b/DB자료.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dong8\Desktop\웹프로젝트\webProject\포트폴리오\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dong8\Desktop\웹프로젝트\submit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SQL!$A$2:$N$86</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -159,10 +159,6 @@
     <t>REGDATE</t>
   </si>
   <si>
-    <t>SYSDATE_x000D_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REPLY</t>
   </si>
   <si>
@@ -265,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SYSDATE_x000D_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UPDATEDATE</t>
   </si>
   <si>
@@ -336,10 +328,6 @@
     <t>ORORDERDATE</t>
   </si>
   <si>
-    <t>SYSDATE_x000D_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CONFIRMDATE</t>
   </si>
   <si>
@@ -387,10 +375,6 @@
     <t>QREGDATE</t>
   </si>
   <si>
-    <t>SYSDATE_x000D_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REVIEW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,6 +452,18 @@
   </si>
   <si>
     <t>READCOUNT</t>
+  </si>
+  <si>
+    <t>sysdate</t>
+  </si>
+  <si>
+    <t>VARCHAR2(4000 BYTE)</t>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+  </si>
+  <si>
+    <t>RPODSEQ</t>
   </si>
 </sst>
 </file>
@@ -491,12 +487,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -513,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +524,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1100,7 +1105,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
@@ -1112,7 +1117,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -1127,10 +1132,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1141,13 +1146,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1159,10 +1164,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -1177,10 +1182,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -1195,7 +1200,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -1207,7 +1212,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
@@ -1216,10 +1221,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -1230,13 +1235,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -1248,7 +1253,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -1266,13 +1271,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -1284,7 +1289,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -1296,7 +1301,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="3"/>
@@ -1305,10 +1310,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1326,10 +1331,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
         <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1340,7 +1345,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -1354,10 +1359,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1368,10 +1373,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
         <v>58</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -1382,13 +1387,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -1396,10 +1401,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1410,10 +1415,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
         <v>62</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1427,10 +1432,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1444,10 +1449,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1458,13 +1463,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
         <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>67</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -1472,7 +1477,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -1484,15 +1489,15 @@
         <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
@@ -1503,10 +1508,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1517,7 +1522,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1531,10 +1536,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -1545,10 +1550,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1559,13 +1564,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
+        <v>75</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -1573,10 +1578,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -1587,10 +1592,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -1601,10 +1606,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -1615,10 +1620,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -1629,10 +1634,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -1643,10 +1648,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -1657,10 +1662,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
         <v>85</v>
-      </c>
-      <c r="B53" t="s">
-        <v>87</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -1671,10 +1676,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1685,10 +1690,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
@@ -1697,15 +1702,15 @@
         <v>21</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
@@ -1716,10 +1721,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
@@ -1730,10 +1735,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -1744,10 +1749,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
@@ -1758,10 +1763,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -1772,10 +1777,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -1786,10 +1791,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -1800,7 +1805,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
@@ -1814,10 +1819,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -1828,7 +1833,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1842,7 +1847,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
         <v>36</v>
@@ -1856,13 +1861,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
         <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -1870,10 +1875,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
         <v>20</v>
@@ -1882,18 +1887,18 @@
         <v>21</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
         <v>21</v>
@@ -1901,10 +1906,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -1915,27 +1920,27 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -1943,10 +1948,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" t="s">
         <v>106</v>
-      </c>
-      <c r="B73" t="s">
-        <v>110</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -1957,7 +1962,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
         <v>36</v>
@@ -1971,13 +1976,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
         <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -1985,7 +1990,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -1997,12 +2002,12 @@
         <v>21</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
         <v>33</v>
@@ -2016,10 +2021,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -2030,7 +2035,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
@@ -2044,7 +2049,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
@@ -2058,13 +2063,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -2072,13 +2077,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B82" t="s">
         <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -2086,10 +2091,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -2100,7 +2105,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
@@ -2114,7 +2119,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B85" t="s">
         <v>19</v>
@@ -2126,18 +2131,18 @@
         <v>21</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -2145,10 +2150,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -2159,7 +2164,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -2173,10 +2178,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -2187,10 +2192,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>

--- a/DB자료.xlsx
+++ b/DB자료.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="127">
   <si>
     <t>SELLER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,9 +461,6 @@
   </si>
   <si>
     <t>SYSDATE</t>
-  </si>
-  <si>
-    <t>RPODSEQ</t>
   </si>
 </sst>
 </file>
@@ -522,11 +519,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -822,10 +819,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
@@ -1566,10 +1563,10 @@
       <c r="A46" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="s">
@@ -1923,7 +1920,7 @@
         <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
